--- a/src/main/resources/test_data/LoginData.xlsx
+++ b/src/main/resources/test_data/LoginData.xlsx
@@ -3,25 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GRADUATION-PROJECT\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55CE838-6021-4A3C-8027-5817B05483A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F18392B-5F1A-44B9-ADC0-9994DF631B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Result" r:id="rId5" sheetId="2"/>
+    <sheet name="Test Result" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>thuan</t>
   </si>
@@ -56,20 +56,28 @@
     <t>Verify login page</t>
   </si>
   <si>
+    <t>SHOESHY</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Title Page</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Passed</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,14 +379,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" width="10.0" collapsed="true"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -443,14 +451,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -470,9 +483,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -484,53 +497,73 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/test_data/LoginData.xlsx
+++ b/src/main/resources/test_data/LoginData.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GRADUATION-PROJECT\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F18392B-5F1A-44B9-ADC0-9994DF631B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C7FBD0-FABE-4093-870C-94489EA6F0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Result" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>thuan</t>
   </si>
@@ -34,55 +34,23 @@
   <si>
     <t>hh</t>
   </si>
-  <si>
-    <t>Test ID</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Input data</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Verify login page</t>
-  </si>
-  <si>
-    <t>SHOESHY</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Title Page</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,20 +101,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -380,7 +351,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,8 +386,8 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
+      <c r="C3" s="4">
+        <v>123456</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -424,7 +395,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -451,116 +422,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F55D5A7-53CB-4825-BCC5-E4AF8F27A651}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.88671875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>123456</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+      <c r="C5" s="1">
+        <v>1221</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_data/LoginData.xlsx
+++ b/src/main/resources/test_data/LoginData.xlsx
@@ -3,25 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GRADUATION-PROJECT\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C7FBD0-FABE-4093-870C-94489EA6F0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C166A-2DCB-4552-AAA7-DD8531607300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Result" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>thuan</t>
   </si>
@@ -33,12 +34,76 @@
   </si>
   <si>
     <t>hh</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>WebDemo</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Title Page</t>
+  </si>
+  <si>
+    <t>SHOESHY</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Verify login page</t>
+  </si>
+  <si>
+    <t>Login is Sussces</t>
+  </si>
+  <si>
+    <t>Login Fail</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>login is Succes</t>
+  </si>
+  <si>
+    <t>Login Pass</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1221</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,8 +421,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -426,13 +491,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.88671875" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="3" max="3" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -495,4 +560,172 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/main/resources/test_data/LoginData.xlsx
+++ b/src/main/resources/test_data/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GRADUATION-PROJECT\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C166A-2DCB-4552-AAA7-DD8531607300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3CB9BE-10F5-4BFE-9F74-B5A5D34587E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="A1:XFD1048576"/>
+      <selection activeCell="D22" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
